--- a/data/alteMensa_2019_mittags.xlsx
+++ b/data/alteMensa_2019_mittags.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cornell/programming/Python/mensa/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F772CC-7DA3-F244-8F75-A68F95F2541C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873EC2F9-50BC-1641-87EF-FC9FD24B63F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4158,8 +4158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V2019"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J22" zoomScale="150" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9:U37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5527,7 +5527,7 @@
         <v>2.7536213991769531</v>
       </c>
       <c r="P30" s="2">
-        <f t="shared" ref="P30:Q31" si="10">SUMIFS($F:$F,$G:$G,P$11,$C:$C,"Angebote") / COUNTIFS($G:$G,P$11,$C:$C,"Angebote",$F:$F,"&gt;0")</f>
+        <f t="shared" ref="P30:Q30" si="10">SUMIFS($F:$F,$G:$G,P$11,$C:$C,"Angebote") / COUNTIFS($G:$G,P$11,$C:$C,"Angebote",$F:$F,"&gt;0")</f>
         <v>2.4975757575757558</v>
       </c>
       <c r="Q30" s="2">
@@ -5573,7 +5573,7 @@
         <v>3.0442647058823531</v>
       </c>
       <c r="O31" s="2">
-        <f t="shared" ref="O31:Q35" si="11">SUMIFS($F:$F,$G:$G,O$11,$C:$C,"WOK &amp; GRILL") / COUNTIFS($G:$G,O$11,$C:$C,"WOK &amp; GRILL",$F:$F,"&gt;0")</f>
+        <f t="shared" ref="O31:Q31" si="11">SUMIFS($F:$F,$G:$G,O$11,$C:$C,"WOK &amp; GRILL") / COUNTIFS($G:$G,O$11,$C:$C,"WOK &amp; GRILL",$F:$F,"&gt;0")</f>
         <v>3.1890588235294115</v>
       </c>
       <c r="P31" s="2">
